--- a/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{267AACAB-65D1-49BA-9A5A-29BAFE7C575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A85592-7FFA-4B4B-9106-2B0DC7445671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9538BB99-3BE4-4D8B-BBBC-7B39BE4307C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31D25391-F9E4-4661-96C1-BDF2526BC514}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="608">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,10 +95,10 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,7 +107,7 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>27,97%</t>
+    <t>24,49%</t>
   </si>
   <si>
     <t>11,43%</t>
@@ -122,10 +122,10 @@
     <t>9,63%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -134,7 +134,7 @@
     <t>92,02%</t>
   </si>
   <si>
-    <t>72,03%</t>
+    <t>75,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -152,10 +152,10 @@
     <t>84,54%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1693 +167,1663 @@
     <t>6,32%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
     <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
   </si>
   <si>
     <t>15,23%</t>
@@ -2304,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E341C1F-39C2-49F3-976E-5453F5427EE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486CDB2-4C00-4CB5-8956-7E8FD8528D00}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2763,7 +2733,7 @@
         <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>169688</v>
+        <v>169689</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>64</v>
@@ -2814,7 +2784,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -3046,13 +3016,13 @@
         <v>1952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3061,13 +3031,13 @@
         <v>9488</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3076,13 +3046,13 @@
         <v>11440</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3067,13 @@
         <v>5280</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3112,13 +3082,13 @@
         <v>12706</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3333,13 +3303,13 @@
         <v>37588</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3324,13 @@
         <v>126406</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -3369,13 +3339,13 @@
         <v>159796</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>298</v>
@@ -3384,13 +3354,13 @@
         <v>286202</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,7 +3428,7 @@
         <v>20285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>148</v>
@@ -3512,10 +3482,10 @@
         <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -3673,7 +3643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E2465C-F62B-4E86-B3B4-5C6D6D217DB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B898C1-1328-4074-8337-73EA9B68E259}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3827,13 +3797,13 @@
         <v>5406</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3863,13 +3833,13 @@
         <v>4413</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3878,13 +3848,13 @@
         <v>4413</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,10 +3869,10 @@
         <v>19267</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
@@ -3914,13 +3884,13 @@
         <v>17305</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3929,13 +3899,13 @@
         <v>36573</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3973,13 @@
         <v>7156</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4018,13 +3988,13 @@
         <v>20891</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4033,7 +4003,7 @@
         <v>28048</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>204</v>
@@ -4057,10 +4027,10 @@
         <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4069,13 +4039,13 @@
         <v>23866</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -4084,13 +4054,13 @@
         <v>37872</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4075,13 @@
         <v>97188</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4120,13 +4090,13 @@
         <v>96835</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -4135,13 +4105,13 @@
         <v>194023</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4179,13 @@
         <v>19651</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -4224,13 +4194,13 @@
         <v>40384</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -4239,13 +4209,13 @@
         <v>60035</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4230,13 @@
         <v>17456</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4275,13 +4245,13 @@
         <v>24373</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4290,7 +4260,7 @@
         <v>41829</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>237</v>
@@ -4418,10 +4388,10 @@
         <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -4451,7 +4421,7 @@
         <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4436,13 @@
         <v>10469</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4484,10 +4454,10 @@
         <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4496,13 +4466,13 @@
         <v>27629</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4487,13 @@
         <v>82381</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7">
         <v>87</v>
@@ -4532,13 +4502,13 @@
         <v>94379</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M18" s="7">
         <v>159</v>
@@ -4547,13 +4517,13 @@
         <v>176760</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4591,13 @@
         <v>11167</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4636,13 +4606,13 @@
         <v>17773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4651,13 +4621,13 @@
         <v>28940</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4642,13 @@
         <v>18563</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -4687,13 +4657,13 @@
         <v>33094</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -4702,13 +4672,13 @@
         <v>51656</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4693,13 @@
         <v>131884</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4738,13 +4708,13 @@
         <v>192883</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>303</v>
@@ -4753,13 +4723,13 @@
         <v>324767</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4797,13 @@
         <v>50652</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="H24" s="7">
         <v>102</v>
@@ -4842,13 +4812,13 @@
         <v>112004</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -4857,13 +4827,13 @@
         <v>162656</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4848,13 @@
         <v>60493</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -4893,13 +4863,13 @@
         <v>102906</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -4908,13 +4878,13 @@
         <v>163399</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,13 +4899,13 @@
         <v>448492</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H26" s="7">
         <v>498</v>
@@ -4944,13 +4914,13 @@
         <v>528065</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>904</v>
@@ -4959,13 +4929,13 @@
         <v>976557</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,7 +5012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C72437-0FEA-4A90-B0DA-CE13274FC70B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F88AFB3-2665-4C5B-BBE1-FC5B8BF8EF3D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5059,7 +5029,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5166,13 +5136,13 @@
         <v>2637</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5187,7 +5157,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5196,13 +5166,13 @@
         <v>4948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5187,13 @@
         <v>3646</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5232,13 +5202,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -5247,13 +5217,13 @@
         <v>4543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5238,13 @@
         <v>15405</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5283,13 +5253,13 @@
         <v>20230</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -5298,13 +5268,13 @@
         <v>35636</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5342,13 @@
         <v>10823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -5387,13 +5357,13 @@
         <v>15246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5402,13 +5372,13 @@
         <v>26070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5393,13 @@
         <v>5447</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -5438,13 +5408,13 @@
         <v>25110</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -5453,13 +5423,13 @@
         <v>30556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5444,13 @@
         <v>98776</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -5489,13 +5459,13 @@
         <v>109595</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>205</v>
@@ -5504,13 +5474,13 @@
         <v>208371</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,7 +5548,7 @@
         <v>10365</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>372</v>
@@ -5593,7 +5563,7 @@
         <v>18120</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>374</v>
@@ -5614,7 +5584,7 @@
         <v>377</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5599,13 @@
         <v>14324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5644,13 +5614,13 @@
         <v>36336</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -5659,13 +5629,13 @@
         <v>50660</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5650,13 @@
         <v>140252</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5695,13 +5665,13 @@
         <v>164708</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5710,13 +5680,13 @@
         <v>304960</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5754,13 @@
         <v>8592</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5799,13 +5769,13 @@
         <v>20380</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5814,13 +5784,13 @@
         <v>28972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5805,13 @@
         <v>5645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -5850,13 +5820,13 @@
         <v>22557</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5865,13 +5835,13 @@
         <v>28202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5856,13 @@
         <v>100798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5901,13 +5871,13 @@
         <v>99658</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5916,13 +5886,13 @@
         <v>200456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +5960,13 @@
         <v>6676</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6005,13 +5975,13 @@
         <v>14698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -6020,13 +5990,13 @@
         <v>21374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6011,13 @@
         <v>12764</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>204</v>
+        <v>422</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -6056,13 +6026,13 @@
         <v>39634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>432</v>
+        <v>231</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
@@ -6071,13 +6041,13 @@
         <v>52398</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6062,13 @@
         <v>155178</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>157</v>
@@ -6107,13 +6077,13 @@
         <v>188449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6122,13 +6092,13 @@
         <v>343628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6166,13 @@
         <v>39093</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -6211,13 +6181,13 @@
         <v>70756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -6226,13 +6196,13 @@
         <v>109849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>207</v>
+        <v>445</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>202</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6217,13 @@
         <v>41826</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -6262,13 +6232,13 @@
         <v>124534</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -6277,13 +6247,13 @@
         <v>166360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>73</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6268,13 @@
         <v>510409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -6313,13 +6283,13 @@
         <v>582641</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -6328,13 +6298,13 @@
         <v>1093050</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>367</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA316E8-5874-4857-9E31-FBC32C96D770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C196BAF5-07CA-48EF-BDDD-1068919000A6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6428,7 +6398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6535,13 +6505,13 @@
         <v>3102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -6550,13 +6520,13 @@
         <v>9922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -6565,13 +6535,13 @@
         <v>13024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6556,13 @@
         <v>4909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6601,13 +6571,13 @@
         <v>9605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -6616,13 +6586,13 @@
         <v>14514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6607,13 @@
         <v>21653</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H6" s="7">
         <v>64</v>
@@ -6652,13 +6622,13 @@
         <v>25894</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M6" s="7">
         <v>98</v>
@@ -6667,13 +6637,13 @@
         <v>47548</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6711,13 @@
         <v>14470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -6756,13 +6726,13 @@
         <v>30653</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -6771,13 +6741,13 @@
         <v>45123</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6762,13 @@
         <v>14128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -6807,13 +6777,13 @@
         <v>24997</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6822,13 +6792,13 @@
         <v>39125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6813,13 @@
         <v>96379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -6858,13 +6828,13 @@
         <v>91568</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>368</v>
@@ -6873,13 +6843,13 @@
         <v>187947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6917,13 @@
         <v>11413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H12" s="7">
         <v>72</v>
@@ -6962,13 +6932,13 @@
         <v>40593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -6977,13 +6947,13 @@
         <v>52006</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6968,13 @@
         <v>18594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -7013,13 +6983,13 @@
         <v>44939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>426</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -7028,13 +6998,13 @@
         <v>63534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7019,13 @@
         <v>143839</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H14" s="7">
         <v>293</v>
@@ -7064,13 +7034,13 @@
         <v>157362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -7079,13 +7049,13 @@
         <v>301201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,13 +7123,13 @@
         <v>7069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -7168,13 +7138,13 @@
         <v>23040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -7183,13 +7153,13 @@
         <v>30109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7174,13 @@
         <v>11189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>547</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -7219,13 +7189,13 @@
         <v>25918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -7234,13 +7204,13 @@
         <v>37106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7225,13 @@
         <v>128977</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -7270,13 +7240,13 @@
         <v>232156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="M18" s="7">
         <v>377</v>
@@ -7285,13 +7255,13 @@
         <v>361134</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>560</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>570</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,13 +7329,13 @@
         <v>12491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>562</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -7374,13 +7344,13 @@
         <v>39858</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>79</v>
@@ -7389,13 +7359,13 @@
         <v>52349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,13 +7380,13 @@
         <v>18646</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>569</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -7425,13 +7395,13 @@
         <v>50849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="M21" s="7">
         <v>111</v>
@@ -7440,13 +7410,13 @@
         <v>69495</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,13 +7431,13 @@
         <v>187207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>382</v>
@@ -7476,13 +7446,13 @@
         <v>218845</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>658</v>
@@ -7491,13 +7461,13 @@
         <v>406052</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,13 +7535,13 @@
         <v>48544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>598</v>
+        <v>441</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -7580,13 +7550,13 @@
         <v>144067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="M24" s="7">
         <v>336</v>
@@ -7595,13 +7565,13 @@
         <v>192611</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>49</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,13 +7586,13 @@
         <v>67466</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>604</v>
+        <v>223</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -7631,13 +7601,13 @@
         <v>156309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -7646,13 +7616,13 @@
         <v>223774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,13 +7637,13 @@
         <v>578055</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H26" s="7">
         <v>1157</v>
@@ -7682,13 +7652,13 @@
         <v>725826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="M26" s="7">
         <v>2002</v>
@@ -7697,13 +7667,13 @@
         <v>1303882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A85592-7FFA-4B4B-9106-2B0DC7445671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30537CDC-F1F5-4F12-B8F8-FB470E6527E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31D25391-F9E4-4661-96C1-BDF2526BC514}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8670D914-F542-484D-B7D9-09FDDACDA6D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="614">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -86,1783 +86,1801 @@
     <t>12,14%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
   </si>
   <si>
     <t>75,51%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>8,69%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>16,52%</t>
+    <t>16,56%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>17,96%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>81,74%</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486CDB2-4C00-4CB5-8956-7E8FD8528D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9C2759-4A28-4713-B531-A9CBDFB1699B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2637,10 +2655,10 @@
         <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2673,13 @@
         <v>11736</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -2673,10 +2691,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -2685,13 +2703,13 @@
         <v>26941</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2724,13 @@
         <v>71280</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -2721,28 +2739,28 @@
         <v>98409</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>169689</v>
+        <v>169688</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,7 +2802,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -2798,7 +2816,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2810,13 +2828,13 @@
         <v>8576</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -2825,13 +2843,13 @@
         <v>13173</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -2840,13 +2858,13 @@
         <v>21748</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2879,13 @@
         <v>14392</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2876,13 +2894,13 @@
         <v>33121</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -2891,13 +2909,13 @@
         <v>47513</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2930,13 @@
         <v>122922</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -2927,13 +2945,13 @@
         <v>136386</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>250</v>
@@ -2942,13 +2960,13 @@
         <v>259307</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3022,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3016,7 +3034,7 @@
         <v>1952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -3097,13 +3115,13 @@
         <v>17987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3136,13 @@
         <v>97139</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -3133,13 +3151,13 @@
         <v>113656</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>214</v>
@@ -3279,7 +3297,7 @@
         <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3288,13 +3306,13 @@
         <v>30935</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -3303,13 +3321,13 @@
         <v>37588</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3342,13 @@
         <v>126406</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -3339,13 +3357,13 @@
         <v>159796</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>298</v>
@@ -3354,13 +3372,13 @@
         <v>286202</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3446,13 @@
         <v>20285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -3443,13 +3461,13 @@
         <v>55257</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -3458,13 +3476,13 @@
         <v>75541</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3497,13 @@
         <v>40166</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -3494,13 +3512,13 @@
         <v>94748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>130</v>
@@ -3509,13 +3527,13 @@
         <v>134913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3548,13 @@
         <v>442016</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>522</v>
@@ -3545,13 +3563,13 @@
         <v>526838</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>981</v>
@@ -3560,13 +3578,13 @@
         <v>968854</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3640,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3643,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B898C1-1328-4074-8337-73EA9B68E259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123FC0D-4652-480A-A589-6B41511D3E4F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3660,7 +3678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3767,13 +3785,13 @@
         <v>1931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3782,13 +3800,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3797,13 +3815,13 @@
         <v>5406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3842,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3833,13 +3851,13 @@
         <v>4413</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3848,13 +3866,13 @@
         <v>4413</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,10 +3887,10 @@
         <v>19267</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
@@ -3884,13 +3902,13 @@
         <v>17305</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3899,13 +3917,13 @@
         <v>36573</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3991,13 @@
         <v>7156</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -3988,13 +4006,13 @@
         <v>20891</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4003,13 +4021,13 @@
         <v>28048</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4042,13 @@
         <v>14006</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4039,13 +4057,13 @@
         <v>23866</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -4054,13 +4072,13 @@
         <v>37872</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4093,13 @@
         <v>97188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4090,13 +4108,13 @@
         <v>96835</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -4105,13 +4123,13 @@
         <v>194023</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,7 +4185,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4179,13 +4197,13 @@
         <v>19651</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -4194,13 +4212,13 @@
         <v>40384</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -4209,13 +4227,13 @@
         <v>60035</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,10 +4248,10 @@
         <v>17456</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>232</v>
@@ -4373,7 +4391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4391,7 +4409,7 @@
         <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -4400,13 +4418,13 @@
         <v>29480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4415,13 +4433,13 @@
         <v>40228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4454,13 @@
         <v>10469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4451,13 +4469,13 @@
         <v>17160</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4466,13 +4484,13 @@
         <v>27629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4505,13 @@
         <v>82381</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="H18" s="7">
         <v>87</v>
@@ -4502,13 +4520,13 @@
         <v>94379</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M18" s="7">
         <v>159</v>
@@ -4517,13 +4535,13 @@
         <v>176760</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4609,13 @@
         <v>11167</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4606,7 +4624,7 @@
         <v>17773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>274</v>
@@ -4675,10 +4693,10 @@
         <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4711,13 @@
         <v>131884</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4708,13 +4726,13 @@
         <v>192883</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>303</v>
@@ -4723,13 +4741,13 @@
         <v>324767</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4815,13 @@
         <v>50652</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H24" s="7">
         <v>102</v>
@@ -4812,13 +4830,13 @@
         <v>112004</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -4827,13 +4845,13 @@
         <v>162656</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4866,13 @@
         <v>60493</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -4863,13 +4881,13 @@
         <v>102906</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -4878,13 +4896,13 @@
         <v>163399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4917,13 @@
         <v>448492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>498</v>
@@ -4914,13 +4932,13 @@
         <v>528065</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>904</v>
@@ -4929,13 +4947,13 @@
         <v>976557</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,7 +5009,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5012,7 +5030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F88AFB3-2665-4C5B-BBE1-FC5B8BF8EF3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5B2D2E-4571-4C04-AF4D-103DDDD9CAE7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5029,7 +5047,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5136,13 +5154,13 @@
         <v>2637</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5151,13 +5169,13 @@
         <v>2311</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5166,13 +5184,13 @@
         <v>4948</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5205,13 @@
         <v>3646</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5202,13 +5220,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -5217,13 +5235,13 @@
         <v>4543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5256,13 @@
         <v>15405</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5253,13 +5271,13 @@
         <v>20230</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -5268,13 +5286,13 @@
         <v>35636</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5360,13 @@
         <v>10823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -5357,13 +5375,13 @@
         <v>15246</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5372,13 +5390,13 @@
         <v>26070</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5411,13 @@
         <v>5447</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -5408,19 +5426,19 @@
         <v>25110</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
       </c>
       <c r="N9" s="7">
-        <v>30556</v>
+        <v>30557</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>359</v>
@@ -5471,7 +5489,7 @@
         <v>205</v>
       </c>
       <c r="N10" s="7">
-        <v>208371</v>
+        <v>208372</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>368</v>
@@ -5522,7 +5540,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -5536,7 +5554,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5563,10 +5581,10 @@
         <v>18120</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>374</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>375</v>
@@ -5605,7 +5623,7 @@
         <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5614,13 +5632,13 @@
         <v>36336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -5629,13 +5647,13 @@
         <v>50660</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,10 +5668,10 @@
         <v>140252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>387</v>
@@ -5683,10 +5701,10 @@
         <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,7 +5760,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5754,13 +5772,13 @@
         <v>8592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5769,10 +5787,10 @@
         <v>20380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>398</v>
@@ -5787,10 +5805,10 @@
         <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5823,13 @@
         <v>5645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -5820,13 +5838,13 @@
         <v>22557</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5835,13 +5853,13 @@
         <v>28202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5874,13 @@
         <v>100798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5871,13 +5889,13 @@
         <v>99658</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5886,13 +5904,13 @@
         <v>200456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5978,13 @@
         <v>6676</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -5975,13 +5993,13 @@
         <v>14698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5990,13 +6008,13 @@
         <v>21374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6029,13 @@
         <v>12764</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -6026,13 +6044,13 @@
         <v>39634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
@@ -6041,13 +6059,13 @@
         <v>52398</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6080,13 @@
         <v>155178</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>157</v>
@@ -6077,13 +6095,13 @@
         <v>188449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6092,13 +6110,13 @@
         <v>343628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6184,13 @@
         <v>39093</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -6181,13 +6199,13 @@
         <v>70756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -6196,13 +6214,13 @@
         <v>109849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6235,13 @@
         <v>41826</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>449</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -6232,13 +6250,13 @@
         <v>124534</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -6247,13 +6265,13 @@
         <v>166360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,10 +6286,10 @@
         <v>510409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>457</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>458</v>
@@ -6298,13 +6316,13 @@
         <v>1093050</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6378,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +6399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C196BAF5-07CA-48EF-BDDD-1068919000A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6298322D-42E4-4A83-8B4E-E516A647E3EF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6398,7 +6416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6505,7 +6523,7 @@
         <v>3102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>466</v>
@@ -6559,10 +6577,10 @@
         <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6571,10 +6589,10 @@
         <v>9605</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>478</v>
@@ -6607,13 +6625,13 @@
         <v>21653</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H6" s="7">
         <v>64</v>
@@ -6622,13 +6640,13 @@
         <v>25894</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M6" s="7">
         <v>98</v>
@@ -6637,13 +6655,13 @@
         <v>47548</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6729,13 @@
         <v>14470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>493</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -6726,13 +6744,13 @@
         <v>30653</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -6741,13 +6759,13 @@
         <v>45123</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6780,13 @@
         <v>14128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -6777,13 +6795,13 @@
         <v>24997</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>503</v>
+        <v>186</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6792,13 +6810,13 @@
         <v>39125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6831,13 @@
         <v>96379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -6828,13 +6846,13 @@
         <v>91568</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M10" s="7">
         <v>368</v>
@@ -6843,13 +6861,13 @@
         <v>187947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,7 +6923,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6917,13 +6935,13 @@
         <v>11413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>72</v>
@@ -6932,13 +6950,13 @@
         <v>40593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>516</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -6947,13 +6965,13 @@
         <v>52006</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6986,13 @@
         <v>18594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -6983,13 +7001,13 @@
         <v>44939</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -7111,7 +7129,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7177,7 +7195,7 @@
         <v>547</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>548</v>
@@ -7195,7 +7213,7 @@
         <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -7204,13 +7222,13 @@
         <v>37106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7243,13 @@
         <v>128977</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -7240,13 +7258,13 @@
         <v>232156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M18" s="7">
         <v>377</v>
@@ -7255,13 +7273,13 @@
         <v>361134</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7347,13 @@
         <v>12491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -7344,13 +7362,13 @@
         <v>39858</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>162</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>79</v>
@@ -7359,13 +7377,13 @@
         <v>52349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7398,13 @@
         <v>18646</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -7395,13 +7413,13 @@
         <v>50849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>572</v>
+        <v>286</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M21" s="7">
         <v>111</v>
@@ -7410,13 +7428,13 @@
         <v>69495</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7449,13 @@
         <v>187207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>382</v>
@@ -7446,13 +7464,13 @@
         <v>218845</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>658</v>
@@ -7461,13 +7479,13 @@
         <v>406052</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,13 +7553,13 @@
         <v>48544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>441</v>
+        <v>591</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -7550,13 +7568,13 @@
         <v>144067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M24" s="7">
         <v>336</v>
@@ -7565,13 +7583,13 @@
         <v>192611</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7604,13 @@
         <v>67466</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>223</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>491</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -7601,13 +7619,13 @@
         <v>156309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>70</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -7616,13 +7634,13 @@
         <v>223774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7655,13 @@
         <v>578055</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>1157</v>
@@ -7652,13 +7670,13 @@
         <v>725826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>2002</v>
@@ -7667,13 +7685,13 @@
         <v>1303882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>606</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,7 +7747,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30537CDC-F1F5-4F12-B8F8-FB470E6527E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC88BB8-79AD-4AE7-9BC7-306ADD575D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8670D914-F542-484D-B7D9-09FDDACDA6D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB474651-CB7E-4BDD-AE02-329C777455A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="618">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,19 +86,19 @@
     <t>12,14%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,25 +107,25 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>23,88%</t>
+    <t>27,97%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -134,7 +134,7 @@
     <t>92,02%</t>
   </si>
   <si>
-    <t>76,12%</t>
+    <t>72,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -143,19 +143,19 @@
     <t>76,43%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1720 +167,1732 @@
     <t>6,32%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>80,52%</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9C2759-4A28-4713-B531-A9CBDFB1699B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23243100-7CBC-4E02-B7EC-03DA277102C5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2655,10 +2667,10 @@
         <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2685,13 @@
         <v>11736</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -2691,10 +2703,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -2703,13 +2715,13 @@
         <v>26941</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2736,13 @@
         <v>71280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -2739,13 +2751,13 @@
         <v>98409</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2754,13 +2766,13 @@
         <v>169688</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,7 +2828,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2828,13 +2840,13 @@
         <v>8576</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -2843,13 +2855,13 @@
         <v>13173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -2858,13 +2870,13 @@
         <v>21748</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2891,13 @@
         <v>14392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2894,13 +2906,13 @@
         <v>33121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -2909,13 +2921,13 @@
         <v>47513</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2942,13 @@
         <v>122922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -2945,13 +2957,13 @@
         <v>136386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>250</v>
@@ -2960,13 +2972,13 @@
         <v>259307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3034,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3034,13 +3046,13 @@
         <v>1952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3049,13 +3061,13 @@
         <v>9488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3064,13 +3076,13 @@
         <v>11440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3097,13 @@
         <v>5280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3100,13 +3112,13 @@
         <v>12706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3115,13 +3127,13 @@
         <v>17987</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3148,13 @@
         <v>97139</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -3151,13 +3163,13 @@
         <v>113656</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>214</v>
@@ -3297,7 +3309,7 @@
         <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3306,13 +3318,13 @@
         <v>30935</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -3321,13 +3333,13 @@
         <v>37588</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3354,13 @@
         <v>126406</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -3357,13 +3369,13 @@
         <v>159796</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>298</v>
@@ -3372,13 +3384,13 @@
         <v>286202</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3458,13 @@
         <v>20285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -3461,13 +3473,13 @@
         <v>55257</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -3476,13 +3488,13 @@
         <v>75541</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3509,13 @@
         <v>40166</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -3512,13 +3524,13 @@
         <v>94748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>130</v>
@@ -3527,13 +3539,13 @@
         <v>134913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3560,13 @@
         <v>442016</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>522</v>
@@ -3563,13 +3575,13 @@
         <v>526838</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>981</v>
@@ -3578,13 +3590,13 @@
         <v>968854</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,7 +3652,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123FC0D-4652-480A-A589-6B41511D3E4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE02F0F8-3C99-4C18-8657-8D17353E885D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3678,7 +3690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3785,13 +3797,13 @@
         <v>1931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3800,13 +3812,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3815,13 +3827,13 @@
         <v>5406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3851,13 +3863,13 @@
         <v>4413</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3866,13 +3878,13 @@
         <v>4413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,10 +3899,10 @@
         <v>19267</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>32</v>
@@ -3902,13 +3914,13 @@
         <v>17305</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3917,13 +3929,13 @@
         <v>36573</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4003,13 @@
         <v>7156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4006,13 +4018,13 @@
         <v>20891</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4021,13 +4033,13 @@
         <v>28048</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4054,13 @@
         <v>14006</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4057,13 +4069,13 @@
         <v>23866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -4072,13 +4084,13 @@
         <v>37872</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4105,13 @@
         <v>97188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4108,13 +4120,13 @@
         <v>96835</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -4123,13 +4135,13 @@
         <v>194023</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4197,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4197,13 +4209,13 @@
         <v>19651</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -4212,13 +4224,13 @@
         <v>40384</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -4227,13 +4239,13 @@
         <v>60035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4260,13 @@
         <v>17456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4263,13 +4275,13 @@
         <v>24373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4278,7 +4290,7 @@
         <v>41829</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>237</v>
@@ -4391,7 +4403,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4406,10 +4418,10 @@
         <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -4418,13 +4430,13 @@
         <v>29480</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4433,13 +4445,13 @@
         <v>40228</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4466,13 @@
         <v>10469</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -4469,7 +4481,7 @@
         <v>17160</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>259</v>
@@ -4538,10 +4550,10 @@
         <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4621,13 @@
         <v>11167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -4624,13 +4636,13 @@
         <v>17773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4639,13 +4651,13 @@
         <v>28940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4672,13 @@
         <v>18563</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -4675,13 +4687,13 @@
         <v>33094</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -4690,13 +4702,13 @@
         <v>51656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4723,13 @@
         <v>131884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4726,13 +4738,13 @@
         <v>192883</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>303</v>
@@ -4741,13 +4753,13 @@
         <v>324767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4827,13 @@
         <v>50652</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H24" s="7">
         <v>102</v>
@@ -4830,13 +4842,13 @@
         <v>112004</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -4845,13 +4857,13 @@
         <v>162656</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4878,13 @@
         <v>60493</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -4881,13 +4893,13 @@
         <v>102906</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -4896,13 +4908,13 @@
         <v>163399</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4929,13 @@
         <v>448492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H26" s="7">
         <v>498</v>
@@ -4932,13 +4944,13 @@
         <v>528065</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M26" s="7">
         <v>904</v>
@@ -4947,13 +4959,13 @@
         <v>976557</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,7 +5021,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5030,7 +5042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5B2D2E-4571-4C04-AF4D-103DDDD9CAE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89D1841-C4AC-4515-A452-5B7B5E84B721}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5047,7 +5059,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5154,13 +5166,13 @@
         <v>2637</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5169,13 +5181,13 @@
         <v>2311</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5184,13 +5196,13 @@
         <v>4948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5217,13 @@
         <v>3646</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5220,13 +5232,13 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -5235,13 +5247,13 @@
         <v>4543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5268,13 @@
         <v>15405</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5271,13 +5283,13 @@
         <v>20230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -5286,13 +5298,13 @@
         <v>35636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5372,13 @@
         <v>10823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -5375,13 +5387,13 @@
         <v>15246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5390,13 +5402,13 @@
         <v>26070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5423,13 @@
         <v>5447</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -5426,28 +5438,28 @@
         <v>25110</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
       </c>
       <c r="N9" s="7">
-        <v>30557</v>
+        <v>30556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>359</v>
+        <v>159</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5474,13 @@
         <v>98776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -5477,28 +5489,28 @@
         <v>109595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>205</v>
       </c>
       <c r="N10" s="7">
-        <v>208372</v>
+        <v>208371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,7 +5552,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -5554,7 +5566,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5566,7 +5578,7 @@
         <v>10365</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>371</v>
+        <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>372</v>
@@ -5581,10 +5593,10 @@
         <v>18120</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>375</v>
@@ -5602,7 +5614,7 @@
         <v>377</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5629,13 @@
         <v>14324</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5632,10 +5644,10 @@
         <v>36336</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>383</v>
@@ -5650,10 +5662,10 @@
         <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5680,13 @@
         <v>140252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5683,13 +5695,13 @@
         <v>164708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5698,13 +5710,13 @@
         <v>304960</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,7 +5772,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5772,13 +5784,13 @@
         <v>8592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5787,13 +5799,13 @@
         <v>20380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5802,13 +5814,13 @@
         <v>28972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5835,13 @@
         <v>5645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -5838,13 +5850,13 @@
         <v>22557</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5853,13 +5865,13 @@
         <v>28202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5886,13 @@
         <v>100798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -5889,13 +5901,13 @@
         <v>99658</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5904,13 +5916,13 @@
         <v>200456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5990,13 @@
         <v>6676</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -5993,13 +6005,13 @@
         <v>14698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -6008,13 +6020,13 @@
         <v>21374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6041,13 @@
         <v>12764</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>427</v>
+        <v>204</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -6044,13 +6056,13 @@
         <v>39634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>432</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
@@ -6059,13 +6071,13 @@
         <v>52398</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>433</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6092,13 @@
         <v>155178</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>157</v>
@@ -6095,13 +6107,13 @@
         <v>188449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -6110,13 +6122,13 @@
         <v>343628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6196,13 @@
         <v>39093</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -6199,13 +6211,13 @@
         <v>70756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -6214,13 +6226,13 @@
         <v>109849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>207</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6247,13 @@
         <v>41826</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -6250,13 +6262,13 @@
         <v>124534</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -6265,13 +6277,13 @@
         <v>166360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6298,13 @@
         <v>510409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>500</v>
@@ -6301,13 +6313,13 @@
         <v>582641</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -6316,13 +6328,13 @@
         <v>1093050</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,7 +6390,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6399,7 +6411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6298322D-42E4-4A83-8B4E-E516A647E3EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BD33BC-525E-4E31-8BEF-9D04746EF77E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6416,7 +6428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6523,13 +6535,13 @@
         <v>3102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -6538,13 +6550,13 @@
         <v>9922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -6553,13 +6565,13 @@
         <v>13024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6586,13 @@
         <v>4909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6589,13 +6601,13 @@
         <v>9605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -6604,13 +6616,13 @@
         <v>14514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6637,13 @@
         <v>21653</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>486</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H6" s="7">
         <v>64</v>
@@ -6640,13 +6652,13 @@
         <v>25894</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M6" s="7">
         <v>98</v>
@@ -6655,13 +6667,13 @@
         <v>47548</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6741,13 @@
         <v>14470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>496</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>497</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -6744,13 +6756,13 @@
         <v>30653</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -6759,13 +6771,13 @@
         <v>45123</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6792,13 @@
         <v>14128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -6795,13 +6807,13 @@
         <v>24997</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6810,13 +6822,13 @@
         <v>39125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,13 +6843,13 @@
         <v>96379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -6846,13 +6858,13 @@
         <v>91568</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>368</v>
@@ -6861,13 +6873,13 @@
         <v>187947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,7 +6935,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6935,13 +6947,13 @@
         <v>11413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>522</v>
       </c>
       <c r="H12" s="7">
         <v>72</v>
@@ -6950,13 +6962,13 @@
         <v>40593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -6965,13 +6977,13 @@
         <v>52006</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +6998,13 @@
         <v>18594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -7001,13 +7013,13 @@
         <v>44939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -7016,13 +7028,13 @@
         <v>63534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,13 +7049,13 @@
         <v>143839</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>293</v>
@@ -7052,13 +7064,13 @@
         <v>157362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -7067,13 +7079,13 @@
         <v>301201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7141,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7141,13 +7153,13 @@
         <v>7069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -7156,13 +7168,13 @@
         <v>23040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -7171,13 +7183,13 @@
         <v>30109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7204,13 @@
         <v>11189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>547</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -7207,13 +7219,13 @@
         <v>25918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -7222,13 +7234,13 @@
         <v>37106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7255,13 @@
         <v>128977</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
@@ -7258,13 +7270,13 @@
         <v>232156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="M18" s="7">
         <v>377</v>
@@ -7273,13 +7285,13 @@
         <v>361134</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>561</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7359,13 @@
         <v>12491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>564</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -7362,13 +7374,13 @@
         <v>39858</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>79</v>
@@ -7377,13 +7389,13 @@
         <v>52349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,13 +7410,13 @@
         <v>18646</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>572</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -7413,13 +7425,13 @@
         <v>50849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>286</v>
+        <v>581</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="M21" s="7">
         <v>111</v>
@@ -7428,13 +7440,13 @@
         <v>69495</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7461,13 @@
         <v>187207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>382</v>
@@ -7464,13 +7476,13 @@
         <v>218845</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M22" s="7">
         <v>658</v>
@@ -7479,13 +7491,13 @@
         <v>406052</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7565,13 @@
         <v>48544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -7568,13 +7580,13 @@
         <v>144067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M24" s="7">
         <v>336</v>
@@ -7583,13 +7595,13 @@
         <v>192611</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>596</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7616,13 @@
         <v>67466</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -7619,13 +7631,13 @@
         <v>156309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -7634,13 +7646,13 @@
         <v>223774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7667,13 @@
         <v>578055</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H26" s="7">
         <v>1157</v>
@@ -7670,13 +7682,13 @@
         <v>725826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M26" s="7">
         <v>2002</v>
@@ -7685,13 +7697,13 @@
         <v>1303882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>64</v>
+        <v>616</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,7 +7759,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC88BB8-79AD-4AE7-9BC7-306ADD575D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D8CFF1-1C87-4DAA-953C-AA88BEFE6DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB474651-CB7E-4BDD-AE02-329C777455A9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC5039CA-FE61-4BAF-8DFC-410CF90CE571}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="531">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,1831 +68,1570 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No puede</t>
   </si>
   <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
 </sst>
 </file>
@@ -2304,8 +2043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23243100-7CBC-4E02-B7EC-03DA277102C5}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AD2824-3529-40EE-98E8-B8FB754B0E85}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2422,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5599</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2437,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>2953</v>
+        <v>14550</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2452,10 +2191,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>2953</v>
+        <v>20149</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2473,43 +2212,43 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>2105</v>
+        <v>13841</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>2780</v>
+        <v>17985</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>32</v>
+      </c>
+      <c r="N5" s="7">
+        <v>31826</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4884</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>27</v>
@@ -2524,10 +2263,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>24269</v>
+        <v>95549</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2539,10 +2278,10 @@
         <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I6" s="7">
-        <v>18592</v>
+        <v>117000</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -2554,10 +2293,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="N6" s="7">
-        <v>42861</v>
+        <v>212550</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -2575,10 +2314,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="D7" s="7">
-        <v>26374</v>
+        <v>114989</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -2590,10 +2329,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I7" s="7">
-        <v>24325</v>
+        <v>149535</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -2605,10 +2344,10 @@
         <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="N7" s="7">
-        <v>50699</v>
+        <v>264524</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -2628,10 +2367,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>5599</v>
+        <v>8576</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2643,10 +2382,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>11596</v>
+        <v>13173</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2658,10 +2397,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>17195</v>
+        <v>21748</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2679,10 +2418,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>11736</v>
+        <v>14392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -2694,34 +2433,34 @@
         <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I9" s="7">
-        <v>15205</v>
+        <v>33121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N9" s="7">
-        <v>26941</v>
+        <v>47513</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,49 +2469,49 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7">
-        <v>71280</v>
+        <v>122922</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="I10" s="7">
-        <v>98409</v>
+        <v>136386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="N10" s="7">
-        <v>169688</v>
+        <v>259307</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7">
-        <v>88615</v>
+        <v>145889</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -2796,10 +2535,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="I11" s="7">
-        <v>125211</v>
+        <v>182680</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -2811,10 +2550,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>328568</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -2828,55 +2567,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1952</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
-        <v>8576</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
       <c r="I12" s="7">
-        <v>13173</v>
+        <v>9488</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>21748</v>
+        <v>11440</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>14392</v>
+        <v>5280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>33121</v>
+        <v>12706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>47513</v>
+        <v>17987</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,49 +2675,49 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D14" s="7">
-        <v>122922</v>
+        <v>97139</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>136386</v>
+        <v>113656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="N14" s="7">
-        <v>259307</v>
+        <v>210794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,10 +2726,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7">
-        <v>145889</v>
+        <v>104371</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -3002,10 +2741,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I15" s="7">
-        <v>182680</v>
+        <v>135850</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -3017,10 +2756,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="N15" s="7">
-        <v>328568</v>
+        <v>240221</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -3034,55 +2773,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>1952</v>
+        <v>4158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>9488</v>
+        <v>18046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>11440</v>
+        <v>22205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +2830,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>5280</v>
+        <v>6653</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>12706</v>
+        <v>30935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>17987</v>
+        <v>37588</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2881,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="D18" s="7">
-        <v>97139</v>
+        <v>126406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
+        <v>155</v>
+      </c>
+      <c r="I18" s="7">
+        <v>159796</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="7">
-        <v>113656</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="M18" s="7">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="N18" s="7">
-        <v>210794</v>
+        <v>286202</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
-        <v>104371</v>
+        <v>137217</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -3208,10 +2947,10 @@
         <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I19" s="7">
-        <v>135850</v>
+        <v>208777</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -3223,10 +2962,10 @@
         <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="N19" s="7">
-        <v>240221</v>
+        <v>345995</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -3240,55 +2979,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>4158</v>
+        <v>20285</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I20" s="7">
-        <v>18046</v>
+        <v>55257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="N20" s="7">
-        <v>22205</v>
+        <v>75541</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,25 +3036,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D21" s="7">
-        <v>6653</v>
+        <v>40166</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H21" s="7">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="I21" s="7">
-        <v>30935</v>
+        <v>94748</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>133</v>
@@ -3327,10 +3066,10 @@
         <v>135</v>
       </c>
       <c r="M21" s="7">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="N21" s="7">
-        <v>37588</v>
+        <v>134913</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>136</v>
@@ -3348,10 +3087,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>143</v>
+        <v>459</v>
       </c>
       <c r="D22" s="7">
-        <v>126406</v>
+        <v>442016</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>139</v>
@@ -3363,10 +3102,10 @@
         <v>141</v>
       </c>
       <c r="H22" s="7">
-        <v>155</v>
+        <v>522</v>
       </c>
       <c r="I22" s="7">
-        <v>159796</v>
+        <v>526838</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>142</v>
@@ -3378,10 +3117,10 @@
         <v>144</v>
       </c>
       <c r="M22" s="7">
-        <v>298</v>
+        <v>981</v>
       </c>
       <c r="N22" s="7">
-        <v>286202</v>
+        <v>968854</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>145</v>
@@ -3399,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>156</v>
+        <v>523</v>
       </c>
       <c r="D23" s="7">
-        <v>137217</v>
+        <v>502466</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -3414,10 +3153,10 @@
         <v>39</v>
       </c>
       <c r="H23" s="7">
-        <v>200</v>
+        <v>661</v>
       </c>
       <c r="I23" s="7">
-        <v>208777</v>
+        <v>676842</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -3429,10 +3168,10 @@
         <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>356</v>
+        <v>1184</v>
       </c>
       <c r="N23" s="7">
-        <v>345995</v>
+        <v>1179308</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -3445,222 +3184,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>22</v>
-      </c>
-      <c r="D24" s="7">
-        <v>20285</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="A24" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="7">
-        <v>51</v>
-      </c>
-      <c r="I24" s="7">
-        <v>55257</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M24" s="7">
-        <v>73</v>
-      </c>
-      <c r="N24" s="7">
-        <v>75541</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>42</v>
-      </c>
-      <c r="D25" s="7">
-        <v>40166</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="7">
-        <v>88</v>
-      </c>
-      <c r="I25" s="7">
-        <v>94748</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M25" s="7">
-        <v>130</v>
-      </c>
-      <c r="N25" s="7">
-        <v>134913</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7">
-        <v>459</v>
-      </c>
-      <c r="D26" s="7">
-        <v>442016</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="7">
-        <v>522</v>
-      </c>
-      <c r="I26" s="7">
-        <v>526838</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="7">
-        <v>981</v>
-      </c>
-      <c r="N26" s="7">
-        <v>968854</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>523</v>
-      </c>
-      <c r="D27" s="7">
-        <v>502466</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="7">
-        <v>661</v>
-      </c>
-      <c r="I27" s="7">
-        <v>676842</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1184</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1179308</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3673,8 +3205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE02F0F8-3C99-4C18-8657-8D17353E885D}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71895FED-B6AE-4FF7-BE8C-E21FF485733E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3690,7 +3222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3791,49 +3323,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>1931</v>
+        <v>9087</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>3476</v>
+        <v>24367</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>5406</v>
+        <v>33454</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,49 +3374,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>14006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>4413</v>
+        <v>28279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>4413</v>
+        <v>42285</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,49 +3425,49 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="D6" s="7">
-        <v>19267</v>
+        <v>116455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>17305</v>
+        <v>114141</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="N6" s="7">
-        <v>36573</v>
+        <v>230595</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,10 +3476,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="D7" s="7">
-        <v>21198</v>
+        <v>139547</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -3959,10 +3491,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I7" s="7">
-        <v>25194</v>
+        <v>166787</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -3974,10 +3506,10 @@
         <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="N7" s="7">
-        <v>46392</v>
+        <v>306334</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -3997,49 +3529,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>7156</v>
+        <v>19651</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I8" s="7">
-        <v>20891</v>
+        <v>40384</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>28048</v>
+        <v>60035</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,49 +3580,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>14006</v>
+        <v>17456</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="H9" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>23866</v>
+        <v>24373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>37872</v>
+        <v>41829</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,49 +3631,49 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>97188</v>
+        <v>117771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="I10" s="7">
-        <v>96835</v>
+        <v>126663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="N10" s="7">
-        <v>194023</v>
+        <v>244434</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7">
-        <v>118350</v>
+        <v>154878</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4165,10 +3697,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="I11" s="7">
-        <v>141592</v>
+        <v>191420</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4180,10 +3712,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="N11" s="7">
-        <v>259942</v>
+        <v>346298</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4197,55 +3729,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>19651</v>
+        <v>10748</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="H12" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>40384</v>
+        <v>29480</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="M12" s="7">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>60035</v>
+        <v>40228</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,49 +3786,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>17456</v>
+        <v>10469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>24373</v>
+        <v>17160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>41829</v>
+        <v>27629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,49 +3837,49 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7">
-        <v>117771</v>
+        <v>82381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="I14" s="7">
-        <v>126663</v>
+        <v>94379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
+        <v>159</v>
+      </c>
+      <c r="N14" s="7">
+        <v>176760</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="N14" s="7">
-        <v>244434</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,10 +3888,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>154878</v>
+        <v>103598</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -4371,10 +3903,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7">
-        <v>191420</v>
+        <v>141019</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -4386,10 +3918,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="N15" s="7">
-        <v>346298</v>
+        <v>244617</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -4403,55 +3935,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>10748</v>
+        <v>11167</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>29480</v>
+        <v>17773</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>40228</v>
+        <v>28940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,49 +3992,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>10469</v>
+        <v>18563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>17160</v>
+        <v>33094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N17" s="7">
-        <v>27629</v>
+        <v>51656</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,49 +4043,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D18" s="7">
-        <v>82381</v>
+        <v>131884</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="I18" s="7">
-        <v>94379</v>
+        <v>192883</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="N18" s="7">
-        <v>176760</v>
+        <v>324767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D19" s="7">
-        <v>103598</v>
+        <v>161613</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -4577,10 +4109,10 @@
         <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="I19" s="7">
-        <v>141019</v>
+        <v>243750</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -4592,10 +4124,10 @@
         <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="N19" s="7">
-        <v>244617</v>
+        <v>405363</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -4609,55 +4141,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>11167</v>
+        <v>50652</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="H20" s="7">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I20" s="7">
-        <v>17773</v>
+        <v>112004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="N20" s="7">
-        <v>28940</v>
+        <v>162656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,49 +4198,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>18563</v>
+        <v>60493</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H21" s="7">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I21" s="7">
-        <v>33094</v>
+        <v>102906</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="M21" s="7">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="N21" s="7">
-        <v>51656</v>
+        <v>163399</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,49 +4249,49 @@
         <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>120</v>
+        <v>406</v>
       </c>
       <c r="D22" s="7">
-        <v>131884</v>
+        <v>448492</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>183</v>
+        <v>498</v>
       </c>
       <c r="I22" s="7">
-        <v>192883</v>
+        <v>528065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>303</v>
+        <v>904</v>
       </c>
       <c r="N22" s="7">
-        <v>324767</v>
+        <v>976557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>147</v>
+        <v>504</v>
       </c>
       <c r="D23" s="7">
-        <v>161613</v>
+        <v>559637</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -4783,10 +4315,10 @@
         <v>39</v>
       </c>
       <c r="H23" s="7">
-        <v>231</v>
+        <v>694</v>
       </c>
       <c r="I23" s="7">
-        <v>243750</v>
+        <v>742975</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -4798,10 +4330,10 @@
         <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>378</v>
+        <v>1198</v>
       </c>
       <c r="N23" s="7">
-        <v>405363</v>
+        <v>1302612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -4814,222 +4346,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>45</v>
-      </c>
-      <c r="D24" s="7">
-        <v>50652</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H24" s="7">
-        <v>102</v>
-      </c>
-      <c r="I24" s="7">
-        <v>112004</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M24" s="7">
-        <v>147</v>
-      </c>
-      <c r="N24" s="7">
-        <v>162656</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>53</v>
-      </c>
-      <c r="D25" s="7">
-        <v>60493</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H25" s="7">
-        <v>94</v>
-      </c>
-      <c r="I25" s="7">
-        <v>102906</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M25" s="7">
-        <v>147</v>
-      </c>
-      <c r="N25" s="7">
-        <v>163399</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7">
-        <v>406</v>
-      </c>
-      <c r="D26" s="7">
-        <v>448492</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H26" s="7">
-        <v>498</v>
-      </c>
-      <c r="I26" s="7">
-        <v>528065</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M26" s="7">
-        <v>904</v>
-      </c>
-      <c r="N26" s="7">
-        <v>976557</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>504</v>
-      </c>
-      <c r="D27" s="7">
-        <v>559637</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="7">
-        <v>694</v>
-      </c>
-      <c r="I27" s="7">
-        <v>742975</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1198</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1302612</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5042,8 +4367,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89D1841-C4AC-4515-A452-5B7B5E84B721}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5907C176-E335-4F18-AB9D-890D093841E6}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5059,7 +4384,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5160,49 +4485,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>2637</v>
+        <v>13460</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>2311</v>
+        <v>17558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>4948</v>
+        <v>31018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,49 +4536,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>3646</v>
+        <v>9093</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>897</v>
+        <v>26007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>4543</v>
+        <v>35100</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4587,49 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>15405</v>
+        <v>114181</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="I6" s="7">
-        <v>20230</v>
+        <v>129826</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="M6" s="7">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="N6" s="7">
-        <v>35636</v>
+        <v>244007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7">
-        <v>21688</v>
+        <v>136734</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -5328,10 +4653,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I7" s="7">
-        <v>23439</v>
+        <v>173391</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -5343,10 +4668,10 @@
         <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="N7" s="7">
-        <v>45127</v>
+        <v>310125</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -5366,49 +4691,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>10823</v>
+        <v>10365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>15246</v>
+        <v>18120</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>26070</v>
+        <v>28484</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4742,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>5447</v>
+        <v>14324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>25110</v>
+        <v>36336</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="M9" s="7">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N9" s="7">
-        <v>30556</v>
+        <v>50660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,49 +4793,49 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="D10" s="7">
-        <v>98776</v>
+        <v>140252</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I10" s="7">
-        <v>109595</v>
+        <v>164708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="N10" s="7">
-        <v>208371</v>
+        <v>304960</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,10 +4844,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>115046</v>
+        <v>164941</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -5534,10 +4859,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="I11" s="7">
-        <v>149951</v>
+        <v>219163</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -5549,10 +4874,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>384104</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -5566,55 +4891,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>10365</v>
+        <v>8592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>329</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>18120</v>
+        <v>20380</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
       </c>
       <c r="N12" s="7">
-        <v>28484</v>
+        <v>28972</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,49 +4948,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>14324</v>
+        <v>5645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>36336</v>
+        <v>22557</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>50660</v>
+        <v>28202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,49 +4999,49 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7">
-        <v>140252</v>
+        <v>100798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="I14" s="7">
-        <v>164708</v>
+        <v>99658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>288</v>
+        <v>183</v>
       </c>
       <c r="N14" s="7">
-        <v>304960</v>
+        <v>200456</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,10 +5050,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>164941</v>
+        <v>115035</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -5740,10 +5065,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I15" s="7">
-        <v>219163</v>
+        <v>142596</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -5755,10 +5080,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>357</v>
+        <v>232</v>
       </c>
       <c r="N15" s="7">
-        <v>384104</v>
+        <v>257631</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5772,55 +5097,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>8592</v>
+        <v>6676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>20380</v>
+        <v>14698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>28972</v>
+        <v>21374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,49 +5154,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>5645</v>
+        <v>12764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>22557</v>
+        <v>39634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N17" s="7">
-        <v>28202</v>
+        <v>52398</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,49 +5205,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="D18" s="7">
-        <v>100798</v>
+        <v>155178</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="I18" s="7">
-        <v>99658</v>
+        <v>188449</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
-        <v>183</v>
+        <v>326</v>
       </c>
       <c r="N18" s="7">
-        <v>200456</v>
+        <v>343628</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,10 +5256,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D19" s="7">
-        <v>115035</v>
+        <v>174618</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5946,10 +5271,10 @@
         <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="I19" s="7">
-        <v>142596</v>
+        <v>242781</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5961,10 +5286,10 @@
         <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="N19" s="7">
-        <v>257631</v>
+        <v>417400</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -5978,55 +5303,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7">
-        <v>6676</v>
+        <v>39093</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I20" s="7">
-        <v>14698</v>
+        <v>70756</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>198</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="N20" s="7">
-        <v>21374</v>
+        <v>109849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,49 +5360,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7">
-        <v>12764</v>
+        <v>41826</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>204</v>
+        <v>390</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="H21" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I21" s="7">
-        <v>39634</v>
+        <v>124534</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="M21" s="7">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="N21" s="7">
-        <v>52398</v>
+        <v>166360</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>434</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,49 +5411,49 @@
         <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>169</v>
+        <v>538</v>
       </c>
       <c r="D22" s="7">
-        <v>155178</v>
+        <v>510409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
-        <v>157</v>
+        <v>500</v>
       </c>
       <c r="I22" s="7">
-        <v>188449</v>
+        <v>582641</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
-        <v>326</v>
+        <v>1038</v>
       </c>
       <c r="N22" s="7">
-        <v>343628</v>
+        <v>1093050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,10 +5462,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>190</v>
+        <v>627</v>
       </c>
       <c r="D23" s="7">
-        <v>174618</v>
+        <v>591328</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -6152,10 +5477,10 @@
         <v>39</v>
       </c>
       <c r="H23" s="7">
-        <v>198</v>
+        <v>655</v>
       </c>
       <c r="I23" s="7">
-        <v>242781</v>
+        <v>777931</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -6167,10 +5492,10 @@
         <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>388</v>
+        <v>1282</v>
       </c>
       <c r="N23" s="7">
-        <v>417400</v>
+        <v>1369259</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -6183,222 +5508,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>44</v>
-      </c>
-      <c r="D24" s="7">
-        <v>39093</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H24" s="7">
-        <v>55</v>
-      </c>
-      <c r="I24" s="7">
-        <v>70756</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="7">
-        <v>99</v>
-      </c>
-      <c r="N24" s="7">
-        <v>109849</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>45</v>
-      </c>
-      <c r="D25" s="7">
-        <v>41826</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H25" s="7">
-        <v>100</v>
-      </c>
-      <c r="I25" s="7">
-        <v>124534</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="M25" s="7">
-        <v>145</v>
-      </c>
-      <c r="N25" s="7">
-        <v>166360</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7">
-        <v>538</v>
-      </c>
-      <c r="D26" s="7">
-        <v>510409</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H26" s="7">
-        <v>500</v>
-      </c>
-      <c r="I26" s="7">
-        <v>582641</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1038</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1093050</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>627</v>
-      </c>
-      <c r="D27" s="7">
-        <v>591328</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="7">
-        <v>655</v>
-      </c>
-      <c r="I27" s="7">
-        <v>777931</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1282</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1369259</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6411,8 +5529,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BD33BC-525E-4E31-8BEF-9D04746EF77E}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F15CC06-EEF1-4462-A04F-B50BD753762C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6428,7 +5546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6529,49 +5647,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>3102</v>
+        <v>16898</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I4" s="7">
-        <v>9922</v>
+        <v>37727</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="N4" s="7">
-        <v>13024</v>
+        <v>54624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,49 +5698,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>4909</v>
+        <v>18459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I5" s="7">
-        <v>9605</v>
+        <v>32083</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>419</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N5" s="7">
-        <v>14514</v>
+        <v>50542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,49 +5749,49 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="D6" s="7">
-        <v>21653</v>
+        <v>112727</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="H6" s="7">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="I6" s="7">
-        <v>25894</v>
+        <v>109353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>466</v>
       </c>
       <c r="N6" s="7">
-        <v>47548</v>
+        <v>222080</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,10 +5800,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="D7" s="7">
-        <v>29664</v>
+        <v>148083</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -6697,10 +5815,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="I7" s="7">
-        <v>45421</v>
+        <v>179163</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -6712,10 +5830,10 @@
         <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>159</v>
+        <v>699</v>
       </c>
       <c r="N7" s="7">
-        <v>75085</v>
+        <v>327246</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -6735,49 +5853,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>14470</v>
+        <v>10764</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="H8" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>30653</v>
+        <v>36378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>45123</v>
+        <v>47142</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,49 +5904,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>14128</v>
+        <v>16666</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>504</v>
+        <v>390</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="I9" s="7">
-        <v>24997</v>
+        <v>40413</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>505</v>
+        <v>444</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>506</v>
+        <v>441</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>507</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N9" s="7">
-        <v>39125</v>
+        <v>57078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,49 +5955,49 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="D10" s="7">
-        <v>96379</v>
+        <v>132684</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>449</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>450</v>
       </c>
       <c r="H10" s="7">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="I10" s="7">
-        <v>91568</v>
+        <v>141956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
-        <v>368</v>
+        <v>501</v>
       </c>
       <c r="N10" s="7">
-        <v>187947</v>
+        <v>274640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>455</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,10 +6006,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>124977</v>
+        <v>160114</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -6903,10 +6021,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="I11" s="7">
-        <v>147219</v>
+        <v>218746</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -6918,10 +6036,10 @@
         <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>540</v>
+        <v>703</v>
       </c>
       <c r="N11" s="7">
-        <v>272196</v>
+        <v>378860</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -6935,55 +6053,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>11413</v>
+        <v>6445</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>521</v>
+        <v>458</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>522</v>
+        <v>459</v>
       </c>
       <c r="H12" s="7">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="I12" s="7">
-        <v>40593</v>
+        <v>20323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>460</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>461</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>462</v>
       </c>
       <c r="M12" s="7">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="N12" s="7">
-        <v>52006</v>
+        <v>26768</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>463</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>527</v>
+        <v>464</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>528</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,49 +6110,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>18594</v>
+        <v>10452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>468</v>
       </c>
       <c r="H13" s="7">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>44939</v>
+        <v>23907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>470</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="M13" s="7">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>63534</v>
+        <v>34359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,49 +6161,49 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
+        <v>169</v>
+      </c>
+      <c r="D14" s="7">
+        <v>119197</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H14" s="7">
         <v>208</v>
       </c>
-      <c r="D14" s="7">
-        <v>143839</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="H14" s="7">
-        <v>293</v>
-      </c>
       <c r="I14" s="7">
-        <v>157362</v>
+        <v>316026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
-        <v>501</v>
+        <v>377</v>
       </c>
       <c r="N14" s="7">
-        <v>301201</v>
+        <v>435223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,10 +6212,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <v>173846</v>
+        <v>136094</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -7109,10 +6227,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>449</v>
+        <v>288</v>
       </c>
       <c r="I15" s="7">
-        <v>242895</v>
+        <v>360256</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -7124,10 +6242,10 @@
         <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>703</v>
+        <v>480</v>
       </c>
       <c r="N15" s="7">
-        <v>416741</v>
+        <v>496350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -7141,55 +6259,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>7069</v>
+        <v>11801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>23040</v>
+        <v>34174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>489</v>
       </c>
       <c r="M16" s="7">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="N16" s="7">
-        <v>30109</v>
+        <v>45976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>490</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,49 +6316,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>11189</v>
+        <v>17341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>492</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I17" s="7">
-        <v>25918</v>
+        <v>43893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="M17" s="7">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="N17" s="7">
-        <v>37106</v>
+        <v>61234</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,49 +6367,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="D18" s="7">
-        <v>128977</v>
+        <v>174125</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>563</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>564</v>
+        <v>501</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
-        <v>208</v>
+        <v>382</v>
       </c>
       <c r="I18" s="7">
-        <v>232156</v>
+        <v>197556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>566</v>
+        <v>503</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>567</v>
+        <v>504</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>568</v>
+        <v>505</v>
       </c>
       <c r="M18" s="7">
-        <v>377</v>
+        <v>658</v>
       </c>
       <c r="N18" s="7">
-        <v>361134</v>
+        <v>371682</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,10 +6418,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="D19" s="7">
-        <v>147235</v>
+        <v>203268</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -7315,10 +6433,10 @@
         <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="I19" s="7">
-        <v>281114</v>
+        <v>275623</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -7330,10 +6448,10 @@
         <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>480</v>
+        <v>848</v>
       </c>
       <c r="N19" s="7">
-        <v>428349</v>
+        <v>478892</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -7347,55 +6465,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>12491</v>
+        <v>45908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>571</v>
+        <v>508</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>509</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>510</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="I20" s="7">
-        <v>39858</v>
+        <v>128602</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="N20" s="7">
-        <v>52349</v>
+        <v>174510</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>361</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,49 +6522,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D21" s="7">
-        <v>18646</v>
+        <v>62917</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>514</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>580</v>
+        <v>516</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="I21" s="7">
-        <v>50849</v>
+        <v>140296</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>581</v>
+        <v>517</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>582</v>
+        <v>518</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="M21" s="7">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="N21" s="7">
-        <v>69495</v>
+        <v>203214</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>584</v>
+        <v>520</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,49 +6573,49 @@
         <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>276</v>
+        <v>845</v>
       </c>
       <c r="D22" s="7">
-        <v>187207</v>
+        <v>538733</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>588</v>
+        <v>524</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
       <c r="H22" s="7">
-        <v>382</v>
+        <v>1157</v>
       </c>
       <c r="I22" s="7">
-        <v>218845</v>
+        <v>764891</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>590</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>591</v>
+        <v>527</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>592</v>
+        <v>528</v>
       </c>
       <c r="M22" s="7">
-        <v>658</v>
+        <v>2002</v>
       </c>
       <c r="N22" s="7">
-        <v>406052</v>
+        <v>1303624</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>593</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>595</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,10 +6624,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>324</v>
+        <v>1023</v>
       </c>
       <c r="D23" s="7">
-        <v>218343</v>
+        <v>647559</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -7521,10 +6639,10 @@
         <v>39</v>
       </c>
       <c r="H23" s="7">
-        <v>524</v>
+        <v>1707</v>
       </c>
       <c r="I23" s="7">
-        <v>309553</v>
+        <v>1033789</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -7536,10 +6654,10 @@
         <v>39</v>
       </c>
       <c r="M23" s="7">
-        <v>848</v>
+        <v>2730</v>
       </c>
       <c r="N23" s="7">
-        <v>527896</v>
+        <v>1681348</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -7552,222 +6670,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>78</v>
-      </c>
-      <c r="D24" s="7">
-        <v>48544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="H24" s="7">
-        <v>258</v>
-      </c>
-      <c r="I24" s="7">
-        <v>144067</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="M24" s="7">
-        <v>336</v>
-      </c>
-      <c r="N24" s="7">
-        <v>192611</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>100</v>
-      </c>
-      <c r="D25" s="7">
-        <v>67466</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="H25" s="7">
-        <v>292</v>
-      </c>
-      <c r="I25" s="7">
-        <v>156309</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="M25" s="7">
-        <v>392</v>
-      </c>
-      <c r="N25" s="7">
-        <v>223774</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7">
-        <v>845</v>
-      </c>
-      <c r="D26" s="7">
-        <v>578055</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1157</v>
-      </c>
-      <c r="I26" s="7">
-        <v>725826</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2002</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1303882</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1023</v>
-      </c>
-      <c r="D27" s="7">
-        <v>694065</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1707</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1026202</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2730</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1720267</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
